--- a/docs/StructureDefinition-CareConnect-Immunization-1.xlsx
+++ b/docs/StructureDefinition-CareConnect-Immunization-1.xlsx
@@ -6649,7 +6649,7 @@
         <v>41</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>41</v>
@@ -8247,7 +8247,7 @@
         <v>41</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>41</v>
@@ -13781,7 +13781,7 @@
         <v>41</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>41</v>
